--- a/joblist.xlsx
+++ b/joblist.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="46">
   <si>
     <t>Job Title</t>
   </si>
@@ -64,59 +64,101 @@
     <t>soap</t>
   </si>
   <si>
-    <t>&lt;a href='http://www.jobsnepal.com/job/php-ci-developer/97565'&gt;PHP/CI Developer&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='http://www.jobsnepal.com/job/senior-php-developer-software-engineer-laravel/97529'&gt;Senior PHP Developer / Software Engineer (Laravel)&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='http://www.jobsnepal.com/job/senior-php-developer-primarily-core-php/97528'&gt;Senior PHP Developer - Primarily Core PHP&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='http://www.jobsnepal.com/job/php-developer/97382'&gt;PHP Developer&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='http://www.jobsnepal.com/job/php-programmer/97356'&gt;PHP Programmer&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='http://www.jobsnepal.com/job/php-wordpress-asp-net-css/97308'&gt;PHP/Wordpress | ASP.NET | CSS&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='http://www.jobsnepal.com/job/it-application-developer/97169'&gt;IT Application Developer&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='http://www.jobsnepal.com/job/php-wordpress-developer/97159'&gt;PhP /Wordpress Developer&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='http://www.jobsnepal.com/job/agile-project-manager-sr-php-developer/97139'&gt;Agile Project Manager/Sr.PHP Developer&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='http://www.jobsnepal.com/job/php-programmer/97081'&gt;PHP Programmer&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='http://www.jobsnepal.com/job/wordpress-developer-sr-mid/97000'&gt;Wordpress Developer (Sr/Mid)&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='http://www.jobsnepal.com/job/php-developer/96954'&gt;PHP Developer&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='http://www.jobsnepal.com/job/senior-php-developer/96910'&gt;Senior PHP Developer&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href='http://www.jobsnepal.com/job/php-programmer/84082'&gt;PHP Programmer&lt;/a&gt;</t>
+    <t>link</t>
+  </si>
+  <si>
+    <t>PHP &amp; DOT NET DEVELOPER</t>
+  </si>
+  <si>
+    <t>PHP/CI Developer</t>
+  </si>
+  <si>
+    <t>Senior PHP Developer / Software Engineer (Laravel)</t>
+  </si>
+  <si>
+    <t>Senior PHP Developer - Primarily Core PHP</t>
+  </si>
+  <si>
+    <t>PHP Developer</t>
+  </si>
+  <si>
+    <t>PHP Programmer</t>
+  </si>
+  <si>
+    <t>PHP/Wordpress | ASP.NET | CSS</t>
+  </si>
+  <si>
+    <t>IT Application Developer</t>
+  </si>
+  <si>
+    <t>PhP /Wordpress Developer</t>
+  </si>
+  <si>
+    <t>Agile Project Manager/Sr.PHP Developer</t>
+  </si>
+  <si>
+    <t>Wordpress Developer (Sr/Mid)</t>
+  </si>
+  <si>
+    <t>Senior PHP Developer</t>
   </si>
   <si>
     <t>YES</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>http://www.jobsnepal.com/job/php-dot-net-developer/97566</t>
+  </si>
+  <si>
+    <t>http://www.jobsnepal.com/job/php-ci-developer/97565</t>
+  </si>
+  <si>
+    <t>http://www.jobsnepal.com/job/senior-php-developer-software-engineer-laravel/97529</t>
+  </si>
+  <si>
+    <t>http://www.jobsnepal.com/job/senior-php-developer-primarily-core-php/97528</t>
+  </si>
+  <si>
+    <t>http://www.jobsnepal.com/job/php-developer/97382</t>
+  </si>
+  <si>
+    <t>http://www.jobsnepal.com/job/php-programmer/97356</t>
+  </si>
+  <si>
+    <t>http://www.jobsnepal.com/job/php-wordpress-asp-net-css/97308</t>
+  </si>
+  <si>
+    <t>http://www.jobsnepal.com/job/it-application-developer/97169</t>
+  </si>
+  <si>
+    <t>http://www.jobsnepal.com/job/php-wordpress-developer/97159</t>
+  </si>
+  <si>
+    <t>http://www.jobsnepal.com/job/agile-project-manager-sr-php-developer/97139</t>
+  </si>
+  <si>
+    <t>http://www.jobsnepal.com/job/php-programmer/97081</t>
+  </si>
+  <si>
+    <t>http://www.jobsnepal.com/job/wordpress-developer-sr-mid/97000</t>
+  </si>
+  <si>
+    <t>http://www.jobsnepal.com/job/php-developer/96954</t>
+  </si>
+  <si>
+    <t>http://www.jobsnepal.com/job/senior-php-developer/96910</t>
+  </si>
+  <si>
+    <t>http://www.jobsnepal.com/job/php-programmer/84082</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +170,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -168,11 +218,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,708 +573,823 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K4" t="s">
         <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
         <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s">
         <v>30</v>
       </c>
       <c r="J5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" t="s">
+        <v>30</v>
+      </c>
+      <c r="O11" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" t="s">
-        <v>31</v>
-      </c>
-      <c r="M8" t="s">
-        <v>31</v>
-      </c>
-      <c r="N8" t="s">
-        <v>31</v>
-      </c>
-      <c r="O8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" t="s">
-        <v>31</v>
-      </c>
-      <c r="N10" t="s">
-        <v>31</v>
-      </c>
-      <c r="O10" t="s">
-        <v>31</v>
-      </c>
-      <c r="P10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" t="s">
-        <v>31</v>
-      </c>
-      <c r="N11" t="s">
-        <v>31</v>
-      </c>
-      <c r="O11" t="s">
-        <v>31</v>
-      </c>
-      <c r="P11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
         <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K12" t="s">
         <v>30</v>
       </c>
       <c r="L12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
         <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F13" t="s">
         <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H13" t="s">
         <v>30</v>
       </c>
       <c r="I13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J13" t="s">
         <v>30</v>
       </c>
       <c r="K13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>30</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O14" t="s">
+        <v>30</v>
+      </c>
+      <c r="P14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14" t="s">
-        <v>30</v>
-      </c>
-      <c r="L14" t="s">
-        <v>31</v>
-      </c>
-      <c r="M14" t="s">
-        <v>31</v>
-      </c>
-      <c r="N14" t="s">
-        <v>31</v>
-      </c>
-      <c r="O14" t="s">
-        <v>31</v>
-      </c>
-      <c r="P14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I15" t="s">
         <v>30</v>
       </c>
       <c r="J15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P15" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16" t="s">
+        <v>30</v>
+      </c>
+      <c r="O16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P16" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="Q2" r:id="rId1"/>
+    <hyperlink ref="Q3" r:id="rId2"/>
+    <hyperlink ref="Q4" r:id="rId3"/>
+    <hyperlink ref="Q5" r:id="rId4"/>
+    <hyperlink ref="Q6" r:id="rId5"/>
+    <hyperlink ref="Q7" r:id="rId6"/>
+    <hyperlink ref="Q8" r:id="rId7"/>
+    <hyperlink ref="Q9" r:id="rId8"/>
+    <hyperlink ref="Q10" r:id="rId9"/>
+    <hyperlink ref="Q11" r:id="rId10"/>
+    <hyperlink ref="Q12" r:id="rId11"/>
+    <hyperlink ref="Q13" r:id="rId12"/>
+    <hyperlink ref="Q14" r:id="rId13"/>
+    <hyperlink ref="Q15" r:id="rId14"/>
+    <hyperlink ref="Q16" r:id="rId15"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>